--- a/cdf_star.xlsx
+++ b/cdf_star.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,258 +371,810 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>7.308042694422687e-011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1</v>
+        <v>4.082752076400736</v>
       </c>
       <c r="B3">
-        <v>6.631866974590476e-007</v>
+        <v>7.200894532033828e-011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2</v>
+        <v>4.167216129338631</v>
       </c>
       <c r="B4">
-        <v>3.833501362497534e-006</v>
+        <v>1.398498830963226e-010</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>3</v>
+        <v>4.253427576216984</v>
       </c>
       <c r="B5">
-        <v>1.936157598424228e-005</v>
+        <v>2.686075072907795e-010</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>4</v>
+        <v>4.34142256715501</v>
       </c>
       <c r="B6">
-        <v>8.544430491734793e-005</v>
+        <v>5.102165829894625e-010</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>5</v>
+        <v>4.431238000146283</v>
       </c>
       <c r="B7">
-        <v>0.0003294839683297926</v>
+        <v>9.584542350346894e-010</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>6</v>
+        <v>4.522911536530771</v>
       </c>
       <c r="B8">
-        <v>0.001110209382741279</v>
+        <v>1.780609073343614e-009</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>7</v>
+        <v>4.616481616786962</v>
       </c>
       <c r="B9">
-        <v>0.003268923953913021</v>
+        <v>3.271494367528958e-009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>8</v>
+        <v>4.7119874766507</v>
       </c>
       <c r="B10">
-        <v>0.008410911402843238</v>
+        <v>5.944347203708202e-009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>9</v>
+        <v>4.809469163567478</v>
       </c>
       <c r="B11">
-        <v>0.0189115733061338</v>
+        <v>1.068175367711001e-008</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>10</v>
+        <v>4.908967553485107</v>
       </c>
       <c r="B12">
-        <v>0.03715913976534731</v>
+        <v>1.898284718571055e-008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>11</v>
+        <v>5.01052436799379</v>
       </c>
       <c r="B13">
-        <v>0.06380621508387377</v>
+        <v>3.336265076227376e-008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>12</v>
+        <v>5.114182191820784</v>
       </c>
       <c r="B14">
-        <v>0.09574684750143009</v>
+        <v>5.798827031025297e-008</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>13</v>
+        <v>5.219984490686993</v>
       </c>
       <c r="B15">
-        <v>0.1255607244165234</v>
+        <v>9.967819621961142e-008</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>14</v>
+        <v>5.327975629532991</v>
       </c>
       <c r="B16">
-        <v>0.1438975613770277</v>
+        <v>1.694496199121106e-007</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>15</v>
+        <v>5.438200891122085</v>
       </c>
       <c r="B17">
-        <v>0.1441201122743444</v>
+        <v>2.848796605574899e-007</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>16</v>
+        <v>5.550706495028257</v>
       </c>
       <c r="B18">
-        <v>0.1261442038336834</v>
+        <v>4.736556317440437e-007</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>17</v>
+        <v>5.665539617016917</v>
       </c>
       <c r="B19">
-        <v>0.0964895637344978</v>
+        <v>7.78833077811121e-007</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>18</v>
+        <v>5.782748408826612</v>
       </c>
       <c r="B20">
-        <v>0.06450023316719322</v>
+        <v>1.266503790252176e-006</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>19</v>
+        <v>5.902382018359976</v>
       </c>
       <c r="B21">
-        <v>0.03767961803835063</v>
+        <v>2.036802994570778e-006</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>20</v>
+        <v>6.02449061029239</v>
       </c>
       <c r="B22">
-        <v>0.01923584031666725</v>
+        <v>3.239455238607066e-006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>21</v>
+        <v>6.149125387107</v>
       </c>
       <c r="B23">
-        <v>0.008581621828333108</v>
+        <v>5.095365848576388e-006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>22</v>
+        <v>6.276338610564896</v>
       </c>
       <c r="B24">
-        <v>0.003345600771597512</v>
+        <v>7.926093524141119e-006</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>23</v>
+        <v>6.406183623619485</v>
       </c>
       <c r="B25">
-        <v>0.001139770391858752</v>
+        <v>1.219336143497782e-005</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>24</v>
+        <v>6.538714872784211</v>
       </c>
       <c r="B26">
-        <v>0.0003393049236246615</v>
+        <v>1.855103473130048e-005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>25</v>
+        <v>6.673987930963029</v>
       </c>
       <c r="B27">
-        <v>8.826380117443744e-005</v>
+        <v>2.791214857016903e-005</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>26</v>
+        <v>6.81205952075319</v>
       </c>
       <c r="B28">
-        <v>2.006245595020939e-005</v>
+        <v>4.153352943054167e-005</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>27</v>
+        <v>6.952987538230123</v>
       </c>
       <c r="B29">
-        <v>3.984585665750551e-006</v>
+        <v>6.112021178738506e-005</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>28</v>
+        <v>7.096831077224369</v>
       </c>
       <c r="B30">
-        <v>6.914611611064103e-007</v>
+        <v>8.895109671198771e-005</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>29</v>
+        <v>7.243650454100767</v>
       </c>
       <c r="B31">
-        <v>1.048395971148253e-007</v>
+        <v>0.000128026009715622</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>30</v>
+        <v>7.393507233050261</v>
       </c>
       <c r="B32">
-        <v>1.38880962285981e-008</v>
+        <v>0.0001822323854811082</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
+        <v>7.546464251904953</v>
+      </c>
+      <c r="B33">
+        <v>0.0002565271643096907</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>7.70258564848722</v>
+      </c>
+      <c r="B34">
+        <v>0.000357126117091464</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>7.861936887503927</v>
+      </c>
+      <c r="B35">
+        <v>0.000491688800517695</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>8.02458478799705</v>
+      </c>
+      <c r="B36">
+        <v>0.0006694828789907607</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>8.190597551362179</v>
+      </c>
+      <c r="B37">
+        <v>0.0009015069722766549</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>8.360044789946681</v>
+      </c>
+      <c r="B38">
+        <v>0.00120054698725872</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>8.532997556239492</v>
+      </c>
+      <c r="B39">
+        <v>0.001581137698181532</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>8.709528372664796</v>
+      </c>
+      <c r="B40">
+        <v>0.002059399888410535</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>8.889711261992083</v>
+      </c>
+      <c r="B41">
+        <v>0.002652724435233267</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>9.073621778375294</v>
+      </c>
+      <c r="B42">
+        <v>0.00337927903234298</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>9.261337039034173</v>
+      </c>
+      <c r="B43">
+        <v>0.004257321356600978</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>9.452935756590948</v>
+      </c>
+      <c r="B44">
+        <v>0.005304314649088687</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>9.64849827207612</v>
+      </c>
+      <c r="B45">
+        <v>0.006535857719490796</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>9.848106588616918</v>
+      </c>
+      <c r="B46">
+        <v>0.007964460591913962</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>10.05184440582288</v>
+      </c>
+      <c r="B47">
+        <v>0.009598218102697148</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>10.25979715488262</v>
+      </c>
+      <c r="B48">
+        <v>0.0114394548885206</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>10.47205203438685</v>
+      </c>
+      <c r="B49">
+        <v>0.01348343406420764</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>10.68869804689236</v>
+      </c>
+      <c r="B50">
+        <v>0.0157172359268422</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>10.90982603624257</v>
+      </c>
+      <c r="B51">
+        <v>0.01811891970612636</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>11.13552872566004</v>
+      </c>
+      <c r="B52">
+        <v>0.0206570785452659</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>11.36590075662715</v>
+      </c>
+      <c r="B53">
+        <v>0.02329088409812916</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>11.60103872857104</v>
+      </c>
+      <c r="B54">
+        <v>0.02597069196299912</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>11.8410412393697</v>
+      </c>
+      <c r="B55">
+        <v>0.0286392435075801</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>12.08600892669584</v>
+      </c>
+      <c r="B56">
+        <v>0.03123345569840758</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>12.33604451021632</v>
+      </c>
+      <c r="B57">
+        <v>0.03368674182622269</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>12.5912528346644</v>
+      </c>
+      <c r="B58">
+        <v>0.03593175700586215</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>12.85174091380318</v>
+      </c>
+      <c r="B59">
+        <v>0.03790341805944519</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>13.11761797529856</v>
+      </c>
+      <c r="B60">
+        <v>0.03954201286887871</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>13.38899550652045</v>
+      </c>
+      <c r="B61">
+        <v>0.04079619385368311</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>13.66598730129163</v>
+      </c>
+      <c r="B62">
+        <v>0.04162564698305532</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>13.94870950760362</v>
+      </c>
+      <c r="B63">
+        <v>0.04200324303005831</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>14.23728067631985</v>
+      </c>
+      <c r="B64">
+        <v>0.04191651098479388</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>14.53182181088623</v>
+      </c>
+      <c r="B65">
+        <v>0.04136832200812701</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>14.83245641807032</v>
+      </c>
+      <c r="B66">
+        <v>0.04037673160381461</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>15.13931055975001</v>
+      </c>
+      <c r="B67">
+        <v>0.03897399211058927</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>15.45251290577373</v>
+      </c>
+      <c r="B68">
+        <v>0.03720481085080185</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>15.77219478791422</v>
+      </c>
+      <c r="B69">
+        <v>0.03512398514477533</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>16.09849025493841</v>
+      </c>
+      <c r="B70">
+        <v>0.03279358861239734</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>16.43153612881671</v>
+      </c>
+      <c r="B71">
+        <v>0.03027990992547702</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>16.77147206209503</v>
+      </c>
+      <c r="B72">
+        <v>0.02765035352877354</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>17.11844059645386</v>
+      </c>
+      <c r="B73">
+        <v>0.02497050193946715</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>17.47258722247866</v>
+      </c>
+      <c r="B74">
+        <v>0.02230151311468576</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>17.83406044066693</v>
+      </c>
+      <c r="B75">
+        <v>0.01969798766612663</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>18.20301182369729</v>
+      </c>
+      <c r="B76">
+        <v>0.01720639406406377</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>18.5795960799868</v>
+      </c>
+      <c r="B77">
+        <v>0.0148640904979207</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>18.96397111856328</v>
+      </c>
+      <c r="B78">
+        <v>0.01269893463999461</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>19.35629811527945</v>
+      </c>
+      <c r="B79">
+        <v>0.01072943135574012</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>19.75674158039722</v>
+      </c>
+      <c r="B80">
+        <v>0.008965336462599227</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>20.16546942756987</v>
+      </c>
+      <c r="B81">
+        <v>0.007408613678611342</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>20.58265304425162</v>
+      </c>
+      <c r="B82">
+        <v>0.006054632296482509</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>21.00846736356355</v>
+      </c>
+      <c r="B83">
+        <v>0.004893494044061808</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>21.44309093764656</v>
+      </c>
+      <c r="B84">
+        <v>0.003911387295355895</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>21.88670601253156</v>
+      </c>
+      <c r="B85">
+        <v>0.003091882934506907</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>22.33949860455894</v>
+      </c>
+      <c r="B86">
+        <v>0.002417106171246575</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>22.80165857837858</v>
+      </c>
+      <c r="B87">
+        <v>0.001868739969078992</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>23.27337972656396</v>
+      </c>
+      <c r="B88">
+        <v>0.00142883632566293</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>23.75485985087294</v>
+      </c>
+      <c r="B89">
+        <v>0.001080429791907034</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>24.24630084519001</v>
+      </c>
+      <c r="B90">
+        <v>0.0008079622639705075</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>24.7479087801841</v>
+      </c>
+      <c r="B91">
+        <v>0.0005975387315585445</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>25.25989398971817</v>
+      </c>
+      <c r="B92">
+        <v>0.000437040314160142</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>25.78247115904608</v>
+      </c>
+      <c r="B93">
+        <v>0.0003161239446087816</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>26.31585941483438</v>
+      </c>
+      <c r="B94">
+        <v>0.0002261380992629736</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>26.86028241704622</v>
+      </c>
+      <c r="B95">
+        <v>0.00015998178320209</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>27.41596845272642</v>
+      </c>
+      <c r="B96">
+        <v>0.0001119303283950712</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>27.98315053172646</v>
+      </c>
+      <c r="B97">
+        <v>7.744715520752177e-005</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>28.56206648441015</v>
+      </c>
+      <c r="B98">
+        <v>5.299606293740489e-005</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>29.15295906138034</v>
+      </c>
+      <c r="B99">
+        <v>3.586428590873769e-005</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>29.75607603526908</v>
+      </c>
+      <c r="B100">
+        <v>2.400276153891046e-005</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>30.37167030463324</v>
+      </c>
+      <c r="B101">
+        <v>1.588695526777428e-005</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>1.607335042841385e-009</v>
+      <c r="B102">
+        <v>1.039921536760691e-005</v>
       </c>
     </row>
   </sheetData>
